--- a/output/clean_data/special_group_species.xlsx
+++ b/output/clean_data/special_group_species.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>ASFIS Scientific Name</t>
   </si>
@@ -22,48 +22,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Beryx decadactylus</t>
-  </si>
-  <si>
-    <t>Chionoecetes opilio</t>
-  </si>
-  <si>
-    <t>Coryphaenoides rupestris</t>
-  </si>
-  <si>
-    <t>Dissostichus eleginoides</t>
-  </si>
-  <si>
-    <t>Gadus morhua</t>
-  </si>
-  <si>
-    <t>Hippoglossoides platessoides</t>
-  </si>
-  <si>
-    <t>Illex illecebrosus</t>
-  </si>
-  <si>
-    <t>Mallotus villosus</t>
-  </si>
-  <si>
-    <t>Ommastrephes bartramii</t>
-  </si>
-  <si>
-    <t>Pandalus borealis</t>
-  </si>
-  <si>
-    <t>Pentaceros wheeleri</t>
-  </si>
-  <si>
-    <t>Sardinella zunasi</t>
-  </si>
-  <si>
-    <t>Scomber australasicus</t>
-  </si>
-  <si>
-    <t>Sebastes mentella, Sebastes fasciatus</t>
-  </si>
-  <si>
     <t>Oncorhynchus gorbuscha</t>
   </si>
   <si>
@@ -134,9 +92,6 @@
   </si>
   <si>
     <t>Thunnus thynnus</t>
-  </si>
-  <si>
-    <t>Deep Sea</t>
   </si>
   <si>
     <t>Salmon</t>
@@ -503,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +557,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +589,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +597,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +645,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,119 +661,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
         <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/output/clean_data/special_group_species.xlsx
+++ b/output/clean_data/special_group_species.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>ASFIS Scientific Name</t>
   </si>
@@ -40,37 +40,16 @@
     <t>Thaleichthys pacificus</t>
   </si>
   <si>
-    <t>Alopias pelagicus</t>
-  </si>
-  <si>
-    <t>Alopias superciliosus</t>
-  </si>
-  <si>
     <t>Carcharhinus falciformis</t>
   </si>
   <si>
-    <t>Carcharodon carcharias</t>
-  </si>
-  <si>
-    <t>Cetorhinus maximus</t>
-  </si>
-  <si>
-    <t>Hexanchus griseus</t>
-  </si>
-  <si>
     <t>Isurus oxyrinchus</t>
   </si>
   <si>
-    <t>Isurus paucus</t>
-  </si>
-  <si>
     <t>Lamna nasus</t>
   </si>
   <si>
     <t>Prionace glauca</t>
-  </si>
-  <si>
-    <t>Rhincodon typus</t>
   </si>
   <si>
     <t>Katsuwonus pelamis</t>
@@ -458,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -517,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -525,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -533,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -541,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -549,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -557,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -565,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -573,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -581,7 +560,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -589,7 +568,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -597,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -605,63 +584,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/output/clean_data/special_group_species.xlsx
+++ b/output/clean_data/special_group_species.xlsx
@@ -73,7 +73,7 @@
     <t>Thunnus thynnus</t>
   </si>
   <si>
-    <t>Salmon</t>
+    <t>67 Salmon</t>
   </si>
   <si>
     <t>Sharks</t>
